--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>18.40105966666667</v>
+        <v>15.58971733333333</v>
       </c>
       <c r="H2">
-        <v>55.20317900000001</v>
+        <v>46.769152</v>
       </c>
       <c r="I2">
-        <v>0.6177904080289685</v>
+        <v>0.58284954614551</v>
       </c>
       <c r="J2">
-        <v>0.6177904080289685</v>
+        <v>0.5828495461455101</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>7.519968333333334</v>
+        <v>5.988024</v>
       </c>
       <c r="N2">
-        <v>22.559905</v>
+        <v>17.964072</v>
       </c>
       <c r="O2">
-        <v>0.483567271060424</v>
+        <v>0.4288861341243614</v>
       </c>
       <c r="P2">
-        <v>0.483567271060424</v>
+        <v>0.4288861341243613</v>
       </c>
       <c r="Q2">
-        <v>138.3753859931106</v>
+        <v>93.351601545216</v>
       </c>
       <c r="R2">
-        <v>1245.378473937995</v>
+        <v>840.164413906944</v>
       </c>
       <c r="S2">
-        <v>0.2987432216978741</v>
+        <v>0.2499760886224864</v>
       </c>
       <c r="T2">
-        <v>0.2987432216978741</v>
+        <v>0.2499760886224864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>18.40105966666667</v>
+        <v>15.58971733333333</v>
       </c>
       <c r="H3">
-        <v>55.20317900000001</v>
+        <v>46.769152</v>
       </c>
       <c r="I3">
-        <v>0.6177904080289685</v>
+        <v>0.58284954614551</v>
       </c>
       <c r="J3">
-        <v>0.6177904080289685</v>
+        <v>0.5828495461455101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.018836</v>
       </c>
       <c r="O3">
-        <v>0.4505347502742851</v>
+        <v>0.5018175899002161</v>
       </c>
       <c r="P3">
-        <v>0.4505347502742851</v>
+        <v>0.5018175899002161</v>
       </c>
       <c r="Q3">
-        <v>128.9229517866271</v>
+        <v>109.2259039718969</v>
       </c>
       <c r="R3">
-        <v>1160.306566079644</v>
+        <v>983.0331357470719</v>
       </c>
       <c r="S3">
-        <v>0.27833604720318</v>
+        <v>0.2924841545211746</v>
       </c>
       <c r="T3">
-        <v>0.27833604720318</v>
+        <v>0.2924841545211747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>18.40105966666667</v>
+        <v>15.58971733333333</v>
       </c>
       <c r="H4">
-        <v>55.20317900000001</v>
+        <v>46.769152</v>
       </c>
       <c r="I4">
-        <v>0.6177904080289685</v>
+        <v>0.58284954614551</v>
       </c>
       <c r="J4">
-        <v>0.6177904080289685</v>
+        <v>0.5828495461455101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.024781333333333</v>
+        <v>0.9675009999999999</v>
       </c>
       <c r="N4">
-        <v>3.074344</v>
+        <v>2.902503</v>
       </c>
       <c r="O4">
-        <v>0.06589797866529083</v>
+        <v>0.06929627597542257</v>
       </c>
       <c r="P4">
-        <v>0.06589797866529083</v>
+        <v>0.06929627597542255</v>
       </c>
       <c r="Q4">
-        <v>18.85706245995289</v>
+        <v>15.08306710971733</v>
       </c>
       <c r="R4">
-        <v>169.713562139576</v>
+        <v>135.747603987456</v>
       </c>
       <c r="S4">
-        <v>0.04071113912791428</v>
+        <v>0.04038930300184905</v>
       </c>
       <c r="T4">
-        <v>0.04071113912791428</v>
+        <v>0.04038930300184905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>26.224931</v>
       </c>
       <c r="I5">
-        <v>0.2934887286658173</v>
+        <v>0.3268220285680467</v>
       </c>
       <c r="J5">
-        <v>0.2934887286658173</v>
+        <v>0.3268220285680467</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>7.519968333333334</v>
+        <v>5.988024</v>
       </c>
       <c r="N5">
-        <v>22.559905</v>
+        <v>17.964072</v>
       </c>
       <c r="O5">
-        <v>0.483567271060424</v>
+        <v>0.4288861341243614</v>
       </c>
       <c r="P5">
-        <v>0.483567271060424</v>
+        <v>0.4288861341243613</v>
       </c>
       <c r="Q5">
-        <v>65.73688355461722</v>
+        <v>52.345172075448</v>
       </c>
       <c r="R5">
-        <v>591.631951991555</v>
+        <v>471.106548679032</v>
       </c>
       <c r="S5">
-        <v>0.1419215436079225</v>
+        <v>0.1401694363792311</v>
       </c>
       <c r="T5">
-        <v>0.1419215436079225</v>
+        <v>0.1401694363792311</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>26.224931</v>
       </c>
       <c r="I6">
-        <v>0.2934887286658173</v>
+        <v>0.3268220285680467</v>
       </c>
       <c r="J6">
-        <v>0.2934887286658173</v>
+        <v>0.3268220285680467</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.018836</v>
       </c>
       <c r="O6">
-        <v>0.4505347502742851</v>
+        <v>0.5018175899002161</v>
       </c>
       <c r="P6">
-        <v>0.4505347502742851</v>
+        <v>0.5018175899002161</v>
       </c>
       <c r="Q6">
         <v>61.24639153336845</v>
@@ -818,10 +818,10 @@
         <v>551.2175238003159</v>
       </c>
       <c r="S6">
-        <v>0.1322268710777714</v>
+        <v>0.1640050427023168</v>
       </c>
       <c r="T6">
-        <v>0.1322268710777714</v>
+        <v>0.1640050427023168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>26.224931</v>
       </c>
       <c r="I7">
-        <v>0.2934887286658173</v>
+        <v>0.3268220285680467</v>
       </c>
       <c r="J7">
-        <v>0.2934887286658173</v>
+        <v>0.3268220285680467</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.024781333333333</v>
+        <v>0.9675009999999999</v>
       </c>
       <c r="N7">
-        <v>3.074344</v>
+        <v>2.902503</v>
       </c>
       <c r="O7">
-        <v>0.06589797866529083</v>
+        <v>0.06929627597542257</v>
       </c>
       <c r="P7">
-        <v>0.06589797866529083</v>
+        <v>0.06929627597542255</v>
       </c>
       <c r="Q7">
-        <v>8.958273252251555</v>
+        <v>8.457548989143666</v>
       </c>
       <c r="R7">
-        <v>80.624459270264</v>
+        <v>76.11794090229299</v>
       </c>
       <c r="S7">
-        <v>0.01934031398012336</v>
+        <v>0.0226475494864988</v>
       </c>
       <c r="T7">
-        <v>0.01934031398012336</v>
+        <v>0.0226475494864988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.642575666666667</v>
+        <v>2.416051666666667</v>
       </c>
       <c r="H8">
-        <v>7.927727000000001</v>
+        <v>7.248155</v>
       </c>
       <c r="I8">
-        <v>0.0887208633052142</v>
+        <v>0.09032842528644328</v>
       </c>
       <c r="J8">
-        <v>0.08872086330521418</v>
+        <v>0.09032842528644329</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>7.519968333333334</v>
+        <v>5.988024</v>
       </c>
       <c r="N8">
-        <v>22.559905</v>
+        <v>17.964072</v>
       </c>
       <c r="O8">
-        <v>0.483567271060424</v>
+        <v>0.4288861341243614</v>
       </c>
       <c r="P8">
-        <v>0.483567271060424</v>
+        <v>0.4288861341243613</v>
       </c>
       <c r="Q8">
-        <v>19.87208533177056</v>
+        <v>14.46737536524</v>
       </c>
       <c r="R8">
-        <v>178.848767985935</v>
+        <v>130.20637828716</v>
       </c>
       <c r="S8">
-        <v>0.04290250575462733</v>
+        <v>0.03874060912264387</v>
       </c>
       <c r="T8">
-        <v>0.04290250575462733</v>
+        <v>0.03874060912264387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.642575666666667</v>
+        <v>2.416051666666667</v>
       </c>
       <c r="H9">
-        <v>7.927727000000001</v>
+        <v>7.248155</v>
       </c>
       <c r="I9">
-        <v>0.0887208633052142</v>
+        <v>0.09032842528644328</v>
       </c>
       <c r="J9">
-        <v>0.08872086330521418</v>
+        <v>0.09032842528644329</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.018836</v>
       </c>
       <c r="O9">
-        <v>0.4505347502742851</v>
+        <v>0.5018175899002161</v>
       </c>
       <c r="P9">
-        <v>0.4505347502742851</v>
+        <v>0.5018175899002161</v>
       </c>
       <c r="Q9">
-        <v>18.51462151841912</v>
+        <v>16.92753124973111</v>
       </c>
       <c r="R9">
-        <v>166.631593665772</v>
+        <v>152.34778124758</v>
       </c>
       <c r="S9">
-        <v>0.03997183199333366</v>
+        <v>0.0453283926767247</v>
       </c>
       <c r="T9">
-        <v>0.03997183199333366</v>
+        <v>0.04532839267672471</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.642575666666667</v>
+        <v>2.416051666666667</v>
       </c>
       <c r="H10">
-        <v>7.927727000000001</v>
+        <v>7.248155</v>
       </c>
       <c r="I10">
-        <v>0.0887208633052142</v>
+        <v>0.09032842528644328</v>
       </c>
       <c r="J10">
-        <v>0.08872086330521418</v>
+        <v>0.09032842528644329</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.024781333333333</v>
+        <v>0.9675009999999999</v>
       </c>
       <c r="N10">
-        <v>3.074344</v>
+        <v>2.902503</v>
       </c>
       <c r="O10">
-        <v>0.06589797866529083</v>
+        <v>0.06929627597542257</v>
       </c>
       <c r="P10">
-        <v>0.06589797866529083</v>
+        <v>0.06929627597542255</v>
       </c>
       <c r="Q10">
-        <v>2.70806221512089</v>
+        <v>2.337532403551667</v>
       </c>
       <c r="R10">
-        <v>24.372559936088</v>
+        <v>21.037791631965</v>
       </c>
       <c r="S10">
-        <v>0.00584652555725319</v>
+        <v>0.006259423487074711</v>
       </c>
       <c r="T10">
-        <v>0.005846525557253189</v>
+        <v>0.006259423487074711</v>
       </c>
     </row>
   </sheetData>
